--- a/medicine/Psychotrope/Cheongju_(boisson)/Cheongju_(boisson).xlsx
+++ b/medicine/Psychotrope/Cheongju_(boisson)/Cheongju_(boisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cheongju (청주, litt. alcool clair) ou yakju (약주) est un alcool de riz coréen de type bière traditionnelle, équivalent du saké japonais. C'est une boisson fermentée datant de plus de 300 ans, obtenue en 15 jours avec de l'eau, du riz glutineux et du nuruk, un ferment de type Aspergillus oryzae). 
 Contrairement au makgeolli il est clair et limpide. En effet, il est filtré au moyen d'une passoire en bambou appelée yongsu. Son taux d'alcool avoisine les 17 %. 
